--- a/Planning/Guidelines.xlsx
+++ b/Planning/Guidelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\GitHub\DYNAMO-Electronic_Fursuit-2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\GitHub\DYNAMO-Electronic_Fursuit-2.0\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A0B368-3598-46CD-9F9C-CB85916D842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D09E71-7BB3-48D3-BBCF-535EDFCF6E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Goals and guidelines" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Hardware changes" sheetId="4" r:id="rId4"/>
     <sheet name="Software changes" sheetId="5" r:id="rId5"/>
     <sheet name="Other changes" sheetId="6" r:id="rId6"/>
+    <sheet name="Head" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Lack of organization and subdivision into smaller projects: everything was thought and rethought, implemented and reimplemented multiple times. Also there were no concrete milestones set</t>
   </si>
@@ -239,6 +240,45 @@
   </si>
   <si>
     <t>Higher display resolution with new eye renderer using Unity, resulting in better animations with physics and smooth transitions</t>
+  </si>
+  <si>
+    <t>Ears</t>
+  </si>
+  <si>
+    <t>Pan/Tilt servo mechanism with two servos (one fixed on the skull structure and the other can perform tilting either via cable or a crane)</t>
+  </si>
+  <si>
+    <t>Eyebrows</t>
+  </si>
+  <si>
+    <t>Rotation around fixed axis above eyes, same as old project</t>
+  </si>
+  <si>
+    <t>FUNCTIONS</t>
+  </si>
+  <si>
+    <t>Muzzle</t>
+  </si>
+  <si>
+    <t>Rotation around fixed axis to pitch muzzle piece up and down, allow for snarling (upper teeth fixed on the skull)</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>Two servos with linearized motion via racks, to move each mouth corner elastically, allow for smiling and frowning</t>
+  </si>
+  <si>
+    <t>Jaw</t>
+  </si>
+  <si>
+    <t>Moving jaw with springs, same as old project</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>Digital eyes using LCDs, each rotated by 30 degrees</t>
   </si>
 </sst>
 </file>
@@ -713,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAFDCE2-4AB0-466D-AF0D-8122B52C111D}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -966,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDE75F5-8CCC-4647-9142-14FFFCA1C9A3}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1073,4 +1113,76 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46589772-E413-4118-BBD2-358924537646}">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="112.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Planning/Guidelines.xlsx
+++ b/Planning/Guidelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\GitHub\DYNAMO-Electronic_Fursuit-2.0\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D09E71-7BB3-48D3-BBCF-535EDFCF6E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6979A07-454F-4D20-B0EC-3BD31B45A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{7A8BB06C-79E0-4D79-AC26-7FCF4527D4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Goals and guidelines" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="Maintained features" sheetId="2" r:id="rId3"/>
     <sheet name="Hardware changes" sheetId="4" r:id="rId4"/>
     <sheet name="Software changes" sheetId="5" r:id="rId5"/>
-    <sheet name="Other changes" sheetId="6" r:id="rId6"/>
-    <sheet name="Head" sheetId="7" r:id="rId7"/>
+    <sheet name="Head" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Lack of organization and subdivision into smaller projects: everything was thought and rethought, implemented and reimplemented multiple times. Also there were no concrete milestones set</t>
   </si>
@@ -161,21 +160,12 @@
     <t>Headset changed to just microphone</t>
   </si>
   <si>
-    <t>Exoskeleton with digitigrade stilts (for both anatomy and better fixation of components and easier wearing, modify stilts according to CAD)</t>
-  </si>
-  <si>
     <t>Larger displays (5-inch)</t>
   </si>
   <si>
     <t>Voicemod Control API instead of SoX (or SVC https://github.com/w-okada/voice-changer/blob/master/README_en.md https://www.voicex.world/)</t>
   </si>
   <si>
-    <t>All luxury shag fur (as opposed to just purple)</t>
-  </si>
-  <si>
-    <t>New, more "evil" styled head base with better teeth</t>
-  </si>
-  <si>
     <t>Controller needs to receive 4g connection and it must be configured at every run</t>
   </si>
   <si>
@@ -234,9 +224,6 @@
   </si>
   <si>
     <t>FreeRTOS for paralelization of low-level software</t>
-  </si>
-  <si>
-    <t>Articulated tail system using servos and IMU</t>
   </si>
   <si>
     <t>Higher display resolution with new eye renderer using Unity, resulting in better animations with physics and smooth transitions</t>
@@ -792,27 +779,27 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -848,12 +835,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +863,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -921,10 +908,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD99FA3-A23A-4B2E-9D55-E5541FCBC510}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,7 +936,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -959,42 +946,32 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +984,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,42 +994,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -1085,37 +1062,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF4CE7-03BF-4D99-8572-EC5AFF586F69}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="46.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46589772-E413-4118-BBD2-358924537646}">
   <dimension ref="B1:C7"/>
   <sheetViews>
@@ -1131,55 +1077,55 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
